--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_786.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_786.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32122-d1644642-Reviews-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Travelodge-By-Wyndham-Buena-Park.h18269480.Hotel-Information</t>
@@ -532,11 +538,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_786.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_786.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,330 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r575195918-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>32122</t>
+  </si>
+  <si>
+    <t>1644642</t>
+  </si>
+  <si>
+    <t>575195918</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Horrible Place</t>
+  </si>
+  <si>
+    <t>Worker did not know much about the Wyndham Rewards points and room was dirty still had stuff from previous guests. Shower was dirty. Room had cockroaches. Smell of the room was horrible. Bed was pretty stiff and not comfortable at all.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r572022563-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>572022563</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>I won't take my family back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shady area..feels like I'm was going to get robbed...almost left in the middle of the night.   not sure why this Is apart of the Wyndham rewards.  Think I'll switch to another point system if I get into another hotel like this.   graffiti in shower, room very dirty, other peoples property left in closet.  </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r566319013-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>566319013</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r561406318-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>561406318</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Black feet and hair</t>
+  </si>
+  <si>
+    <t>The towels had hair on them and our feet turn black from the carpet. TV was not mounted and toilet was damaged. Bathroom floor and floor boards were filthy.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r555910381-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>555910381</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>quick stay</t>
+  </si>
+  <si>
+    <t>I am a Wyndham Rewards member  and got this room through their site.  Not quite as nice as all the other stays at their properties.  Very worn room though fairly clean with too strong an order of cleaner. Being wheelchair bound I appreciated the roll in shower.  What I did not like, not Travelodgs's fault, was the car dealership across the street loud speaker was so loud I could here it in my room with music all the time with intermittent announcements</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r554741421-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>554741421</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r552230325-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>552230325</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>location was good, however, the room was very run down...</t>
+  </si>
+  <si>
+    <t>location was good, however, the room was very run down, there were ants all over the bathroom and the bathroom was very old and needed repair.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r551224371-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>551224371</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r549075413-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>549075413</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r543503396-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>543503396</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Excellent..rooms were bigger than expected. Great service.  Parking was perfect and safe. Rooms were clean and spacious.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r540720665-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>540720665</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>I would never stay here again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel should not be in the Wyndham Rewards Program. There were roaches all over, the vent in the bathroom didn't work, the remote didn't work/TV could not be turned on any other way. They were going to bring us a new remote but never did. There's no way we were going to eat food that was provided by them when the room was so unclean. We were so exhausted that we chose to just go to sleep. The pictures on line must be very old because it looked nothing like the room we stayed in. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r537906912-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>537906912</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r519698167-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>519698167</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>It can scar you forever</t>
+  </si>
+  <si>
+    <t>Was my worst experience i got there between 10:30pm - 11pm i was so tired that i didnt even inspect room i should have:( will t just kept getting worst getting out of shower i seen that i had more guest in room with me roaches they where before i got there cause they where looking at me funny it had more i think to do with they new they where going to lose some cousin roaches that moment i had a chankla and some died tired and exhausted we all went to.bed cause when i woke tbere they where on a pillow asleep i called corparete and they said there hands where tied i cant even start on that wyndham teams said no$ to me getting other hotel. That i can check oyOut and go get for me or anything MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Was my worst experience i got there between 10:30pm - 11pm i was so tired that i didnt even inspect room i should have:( will t just kept getting worst getting out of shower i seen that i had more guest in room with me roaches they where before i got there cause they where looking at me funny it had more i think to do with they new they where going to lose some cousin roaches that moment i had a chankla and some died tired and exhausted we all went to.bed cause when i woke tbere they where on a pillow asleep i called corparete and they said there hands where tied i cant even start on that wyndham teams said no$ to me getting other hotel. That i can check oyOut and go get for me or anything More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r516759681-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>516759681</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>I got what I paid for</t>
+  </si>
+  <si>
+    <t>Hotel room was not as clean as it should have been. The shower had hair left over in it and we discovered a blood stain on one of the pillows that was on the bed, after my friend had slept through the night. There were a lot of empty rooms that we could see but management decided to put another guest in the room above us and we got to listen to them stomp around well past midnight. Like the title says, we got what we paid for. I should've paid the extra money to stay closer to where I was hanging out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r516588837-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>516588837</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r507869147-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>507869147</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Phones did not work</t>
+  </si>
+  <si>
+    <t>We were running later that we expected and tried calling he motel to ask them to hold our reservation. Unfortunately we kept getting a message saying the phone had been disconnected. we tried calling the 800 reservations number and they just kept transferring us to the same disconnected number.When we finally go tot the motel we saw that it was still there. We were not sure due to the fact we could not reach them. The night manager repeatedly denied there was anything wrong with their phones. When we checked in he gave us a remote for the TV.. I guess they do not leave them in the rooms for fear of theft. Anyway the remote didn't work. Since the phone problem which didn't exist also knocked out the in room phones, we couldn't call the front desk to complain. We were too tired at that point to leave the room and go get a another remote. In the morning when we checked out the day person confirmed the phones were out and said the remote probably just needed to be reset.Otherwise the room was clean and the bed was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>liu A, Owner at Travelodge by Wyndham Buena Park, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>We were running later that we expected and tried calling he motel to ask them to hold our reservation. Unfortunately we kept getting a message saying the phone had been disconnected. we tried calling the 800 reservations number and they just kept transferring us to the same disconnected number.When we finally go tot the motel we saw that it was still there. We were not sure due to the fact we could not reach them. The night manager repeatedly denied there was anything wrong with their phones. When we checked in he gave us a remote for the TV.. I guess they do not leave them in the rooms for fear of theft. Anyway the remote didn't work. Since the phone problem which didn't exist also knocked out the in room phones, we couldn't call the front desk to complain. We were too tired at that point to leave the room and go get a another remote. In the morning when we checked out the day person confirmed the phones were out and said the remote probably just needed to be reset.Otherwise the room was clean and the bed was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r507804974-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>507804974</t>
+  </si>
+  <si>
+    <t>Terrible service</t>
+  </si>
+  <si>
+    <t>The hotel rooms had a terrible stench and the linens weren't very clean. The availability of breakfast wasn't the best and staff were very unwelcoming and unprofessional. I wouldn't recommend this place to anyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r505129935-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>505129935</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>A 1 is far too generous</t>
+  </si>
+  <si>
+    <t>Checked in on July 21st, 2 rooms, 3 adults, 3 teenagersFirst room:  maintenance came to install a blow dryer after we checked in.  Left 6 holes in the wall, a mess on the sink, and no blower dryerSecond room:  told maintenance the bathroom door didn't stay shut or lock -- the inner workings were gone.    outside window high above sink/counter was open with a screen.   after teen climbed up on the counter, found that the glass part was broken and didn't shut anyway.   Bathroom walls had graffiti and the toilet didn't flush.   Told front desk and were told maintenance was gone for the day and would unclog in the morning.   At that point, we asked for another room and were denied.  We asked for a refund for both rooms as we were leaving and were denied.Hotels.com tried and got the same response, but we were able to get a partial credit from hotels.com as vouchers (58%).We spent 2 hours driving around Anaheim trying to find new rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked in on July 21st, 2 rooms, 3 adults, 3 teenagersFirst room:  maintenance came to install a blow dryer after we checked in.  Left 6 holes in the wall, a mess on the sink, and no blower dryerSecond room:  told maintenance the bathroom door didn't stay shut or lock -- the inner workings were gone.    outside window high above sink/counter was open with a screen.   after teen climbed up on the counter, found that the glass part was broken and didn't shut anyway.   Bathroom walls had graffiti and the toilet didn't flush.   Told front desk and were told maintenance was gone for the day and would unclog in the morning.   At that point, we asked for another room and were denied.  We asked for a refund for both rooms as we were leaving and were denied.Hotels.com tried and got the same response, but we were able to get a partial credit from hotels.com as vouchers (58%).We spent 2 hours driving around Anaheim trying to find new rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r501053318-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>501053318</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Horrible experience</t>
+  </si>
+  <si>
+    <t>I will never stay or book at a travelodge again! I booked a reservation, and when I arrived to check in I was refused service and told that I didn't have a reservation even though I showed my license and confirmation email! To make matters worse when I called the corporate office I was hung up on twice and no one would help me. I ended up taking the 6 hour drive home on no sleep. I am beyond upset and would never allow anyone I know to stay at any of there establishments in the future. If there were a zero star option I would be using that.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r500516641-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>500516641</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
   </si>
 </sst>
 </file>
@@ -645,6 +969,1306 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>113</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" t="s">
+        <v>126</v>
+      </c>
+      <c r="L17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>129</v>
+      </c>
+      <c r="X17" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>122</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>122</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>24336</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_786.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_786.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>matuzandy</t>
+  </si>
+  <si>
     <t>07/12/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Y8168GAdanielc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r572022563-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>sbasto443166</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r566319013-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -207,6 +216,9 @@
     <t>03/13/2018</t>
   </si>
   <si>
+    <t>murphyjewls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r561406318-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -225,6 +237,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>James K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r555910381-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -243,6 +258,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>W1269VTmarkr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r554741421-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -252,6 +270,9 @@
     <t>01/19/2018</t>
   </si>
   <si>
+    <t>Mia A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r552230325-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -267,6 +288,9 @@
     <t>location was good, however, the room was very run down, there were ants all over the bathroom and the bathroom was very old and needed repair.</t>
   </si>
   <si>
+    <t>Juan &amp; Felicia P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r551224371-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -279,6 +303,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>Leigh B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r549075413-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -297,6 +324,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>B5804JEdianar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r543503396-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -315,6 +345,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>richardlY7631KB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r540720665-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -330,6 +363,9 @@
     <t xml:space="preserve">This hotel should not be in the Wyndham Rewards Program. There were roaches all over, the vent in the bathroom didn't work, the remote didn't work/TV could not be turned on any other way. They were going to bring us a new remote but never did. There's no way we were going to eat food that was provided by them when the room was so unclean. We were so exhausted that we chose to just go to sleep. The pictures on line must be very old because it looked nothing like the room we stayed in. </t>
   </si>
   <si>
+    <t>kittygirl04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r537906912-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -342,6 +378,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Rallen69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r519698167-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -363,6 +402,9 @@
     <t>Was my worst experience i got there between 10:30pm - 11pm i was so tired that i didnt even inspect room i should have:( will t just kept getting worst getting out of shower i seen that i had more guest in room with me roaches they where before i got there cause they where looking at me funny it had more i think to do with they new they where going to lose some cousin roaches that moment i had a chankla and some died tired and exhausted we all went to.bed cause when i woke tbere they where on a pillow asleep i called corparete and they said there hands where tied i cant even start on that wyndham teams said no$ to me getting other hotel. That i can check oyOut and go get for me or anything More</t>
   </si>
   <si>
+    <t>chrisbL8980GA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r516759681-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -378,6 +420,9 @@
     <t>Hotel room was not as clean as it should have been. The shower had hair left over in it and we discovered a blood stain on one of the pillows that was on the bed, after my friend had slept through the night. There were a lot of empty rooms that we could see but management decided to put another guest in the room above us and we got to listen to them stomp around well past midnight. Like the title says, we got what we paid for. I should've paid the extra money to stay closer to where I was hanging out.</t>
   </si>
   <si>
+    <t>KinPahrump</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r516588837-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -387,6 +432,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>72divaq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r507869147-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -414,6 +462,9 @@
     <t>We were running later that we expected and tried calling he motel to ask them to hold our reservation. Unfortunately we kept getting a message saying the phone had been disconnected. we tried calling the 800 reservations number and they just kept transferring us to the same disconnected number.When we finally go tot the motel we saw that it was still there. We were not sure due to the fact we could not reach them. The night manager repeatedly denied there was anything wrong with their phones. When we checked in he gave us a remote for the TV.. I guess they do not leave them in the rooms for fear of theft. Anyway the remote didn't work. Since the phone problem which didn't exist also knocked out the in room phones, we couldn't call the front desk to complain. We were too tired at that point to leave the room and go get a another remote. In the morning when we checked out the day person confirmed the phones were out and said the remote probably just needed to be reset.Otherwise the room was clean and the bed was nice.More</t>
   </si>
   <si>
+    <t>579gilv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r507804974-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -426,6 +477,9 @@
     <t>The hotel rooms had a terrible stench and the linens weren't very clean. The availability of breakfast wasn't the best and staff were very unwelcoming and unprofessional. I wouldn't recommend this place to anyone.</t>
   </si>
   <si>
+    <t>Joyce J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r505129935-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -444,6 +498,9 @@
     <t>Checked in on July 21st, 2 rooms, 3 adults, 3 teenagersFirst room:  maintenance came to install a blow dryer after we checked in.  Left 6 holes in the wall, a mess on the sink, and no blower dryerSecond room:  told maintenance the bathroom door didn't stay shut or lock -- the inner workings were gone.    outside window high above sink/counter was open with a screen.   after teen climbed up on the counter, found that the glass part was broken and didn't shut anyway.   Bathroom walls had graffiti and the toilet didn't flush.   Told front desk and were told maintenance was gone for the day and would unclog in the morning.   At that point, we asked for another room and were denied.  We asked for a refund for both rooms as we were leaving and were denied.Hotels.com tried and got the same response, but we were able to get a partial credit from hotels.com as vouchers (58%).We spent 2 hours driving around Anaheim trying to find new rooms.More</t>
   </si>
   <si>
+    <t>victoriacK8835AG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r501053318-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
   </si>
   <si>
@@ -457,6 +514,9 @@
   </si>
   <si>
     <t>I will never stay or book at a travelodge again! I booked a reservation, and when I arrived to check in I was refused service and told that I didn't have a reservation even though I showed my license and confirmation email! To make matters worse when I called the corporate office I was hung up on twice and no one would help me. I ended up taking the 6 hour drive home on no sleep. I am beyond upset and would never allow anyone I know to stay at any of there establishments in the future. If there were a zero star option I would be using that.</t>
+  </si>
+  <si>
+    <t>cinnamonv2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d1644642-r500516641-Travelodge_by_Wyndham_Buena_Park-Buena_Park_California.html</t>
@@ -973,43 +1033,47 @@
       <c r="A2" t="n">
         <v>24336</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1033,50 +1097,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>24336</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -1100,35 +1168,39 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>24336</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1136,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1160,51 +1232,52 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>24336</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -1228,50 +1301,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>24336</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -1295,35 +1372,39 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>24336</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1331,10 +1412,10 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1355,51 +1436,52 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>24336</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
         <v>79</v>
       </c>
-      <c r="J8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>74</v>
-      </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1423,35 +1505,39 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>24336</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -1459,10 +1545,10 @@
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1483,49 +1569,50 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>24336</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1549,50 +1636,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>24336</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1616,50 +1707,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>24336</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1683,35 +1778,39 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>24336</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -1719,10 +1818,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -1743,51 +1842,52 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>24336</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -1811,50 +1911,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>24336</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -1878,35 +1982,39 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>24336</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -1914,10 +2022,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -1938,51 +2046,52 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>24336</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="O17" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2004,56 +2113,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="X17" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="Y17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>24336</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="K18" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2077,50 +2190,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>24336</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>137</v>
       </c>
-      <c r="J19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" t="s">
-        <v>140</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>122</v>
-      </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2138,50 +2255,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>24336</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2205,35 +2326,39 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>24336</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="J21" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -2241,10 +2366,10 @@
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2265,9 +2390,6 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
   </sheetData>
 </worksheet>
